--- a/SP_Sklad/TempLate/PriceList.xlsx
+++ b/SP_Sklad/TempLate/PriceList.xlsx
@@ -45,7 +45,7 @@
     <t>Ціна</t>
   </si>
   <si>
-    <t>Штрих код</t>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1">
       <c r="B10" s="13" t="e">
-        <f>PriceListDet_BarCode</f>
+        <f>PriceListDet_Artikul</f>
         <v>#NAME?</v>
       </c>
       <c r="C10" s="32" t="e">
